--- a/web-platform_22_01_dev/static/media/admin/account/generate_passwords.xlsx
+++ b/web-platform_22_01_dev/static/media/admin/account/generate_passwords.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,36 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>njf7MXTw</t>
+          <t>3tTcX8Et</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$320000$akjpDJL56de1lsvx6N27zX$Zn0Dixg6LvS5k1c14x8smhLSg5JLRt1th/QXJ1yCHRw=</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>YebJQ3yA</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$320000$dTzJMxH1YikZMVyTDXuKX2$0qMsxVGquzDqHIbxakHxB3hDBOdYmnSG8xzvGN/OjtY=</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>rtN9dUVG</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$320000$K5SmUS0I8bDHqi3qcYACdo$TLqMdddXamjNcwnCY+zj19SjBUwT2yI+Je0VYJpU6B8=</t>
+          <t>pbkdf2_sha256$320000$Bj9nnfw7rrNMJq1PbnHHnv$qdrI+dp7ZzDS4orpa+/jg6ZmiUmmytxCGz6bXNcy+TM=</t>
         </is>
       </c>
     </row>
